--- a/Code/Results/Cases/Case_8_19/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_8_19/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9973862966811284</v>
+        <v>0.9971615273963813</v>
       </c>
       <c r="D2">
-        <v>1.01850562753271</v>
+        <v>1.018193755713099</v>
       </c>
       <c r="E2">
-        <v>1.003368557154364</v>
+        <v>1.00347562587205</v>
       </c>
       <c r="F2">
-        <v>1.015490008216497</v>
+        <v>1.01539263736344</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.04590798962905</v>
+        <v>1.045749684308648</v>
       </c>
       <c r="J2">
-        <v>1.019645465194492</v>
+        <v>1.019427469416082</v>
       </c>
       <c r="K2">
-        <v>1.02971303193346</v>
+        <v>1.029405310589378</v>
       </c>
       <c r="L2">
-        <v>1.0147811612691</v>
+        <v>1.014886751149513</v>
       </c>
       <c r="M2">
-        <v>1.026737679544139</v>
+        <v>1.026641613871501</v>
       </c>
       <c r="N2">
-        <v>1.021093478710033</v>
+        <v>1.020490020328018</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.029733388495948</v>
+        <v>1.029657357794556</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.032079858705879</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.031871119756943</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.019592209528418</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.00347995171817</v>
+        <v>1.002095148762587</v>
       </c>
       <c r="D3">
-        <v>1.022632536695155</v>
+        <v>1.02138847900756</v>
       </c>
       <c r="E3">
-        <v>1.008440791826173</v>
+        <v>1.007499289582312</v>
       </c>
       <c r="F3">
-        <v>1.019535710235438</v>
+        <v>1.018936620037294</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.047507090280736</v>
+        <v>1.046874916160234</v>
       </c>
       <c r="J3">
-        <v>1.023876197205233</v>
+        <v>1.02252886040689</v>
       </c>
       <c r="K3">
-        <v>1.032983793634812</v>
+        <v>1.031754813343634</v>
       </c>
       <c r="L3">
-        <v>1.018966798442057</v>
+        <v>1.018037106485752</v>
       </c>
       <c r="M3">
-        <v>1.029924584031186</v>
+        <v>1.029332803736371</v>
       </c>
       <c r="N3">
-        <v>1.025330218845506</v>
+        <v>1.02222897749257</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.032255643572226</v>
+        <v>1.031787283551131</v>
       </c>
       <c r="Q3">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.034389930810289</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.033529482075523</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.020151211565289</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.007315017683561</v>
+        <v>1.005212047795399</v>
       </c>
       <c r="D4">
-        <v>1.025231248863275</v>
+        <v>1.023407681721097</v>
       </c>
       <c r="E4">
-        <v>1.011637772658847</v>
+        <v>1.010046526354828</v>
       </c>
       <c r="F4">
-        <v>1.022095785246238</v>
+        <v>1.021186791489999</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.048497231796836</v>
+        <v>1.047569912851965</v>
       </c>
       <c r="J4">
-        <v>1.026533437605074</v>
+        <v>1.024483362043506</v>
       </c>
       <c r="K4">
-        <v>1.035034401161572</v>
+        <v>1.033231572333221</v>
       </c>
       <c r="L4">
-        <v>1.021597740191294</v>
+        <v>1.020025192189555</v>
       </c>
       <c r="M4">
-        <v>1.031934651726697</v>
+        <v>1.031036062381594</v>
       </c>
       <c r="N4">
-        <v>1.027991232831504</v>
+        <v>1.023324858491288</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.033846494049044</v>
+        <v>1.033135313826116</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.03584081184849</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.03457467524103</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.020499731032735</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.008910615043432</v>
+        <v>1.006510363291332</v>
       </c>
       <c r="D5">
-        <v>1.026315163237746</v>
+        <v>1.024251348794985</v>
       </c>
       <c r="E5">
-        <v>1.012971025058684</v>
+        <v>1.011110230221001</v>
       </c>
       <c r="F5">
-        <v>1.023162267009537</v>
+        <v>1.022125150789241</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.048907152122938</v>
+        <v>1.047857344717025</v>
       </c>
       <c r="J5">
-        <v>1.027639901890699</v>
+        <v>1.025298149399086</v>
       </c>
       <c r="K5">
-        <v>1.03588912553357</v>
+        <v>1.033848143378914</v>
       </c>
       <c r="L5">
-        <v>1.022694642691265</v>
+        <v>1.020855103992475</v>
       </c>
       <c r="M5">
-        <v>1.032771155937298</v>
+        <v>1.031745586456663</v>
       </c>
       <c r="N5">
-        <v>1.029099268423328</v>
+        <v>1.023781703530693</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.034508536920492</v>
+        <v>1.033696860150201</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.036452387941192</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.035018574621105</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.020645904055413</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.009186825338376</v>
+        <v>1.006733876119316</v>
       </c>
       <c r="D6">
-        <v>1.026505793726816</v>
+        <v>1.024399568215292</v>
       </c>
       <c r="E6">
-        <v>1.013204384478177</v>
+        <v>1.011295209920383</v>
       </c>
       <c r="F6">
-        <v>1.023344772531092</v>
+        <v>1.022284950755979</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.048980257215017</v>
+        <v>1.047908821560931</v>
       </c>
       <c r="J6">
-        <v>1.027834104894461</v>
+        <v>1.025440619581723</v>
       </c>
       <c r="K6">
-        <v>1.036041244204326</v>
+        <v>1.033958210965225</v>
       </c>
       <c r="L6">
-        <v>1.022888295153888</v>
+        <v>1.02100082458061</v>
       </c>
       <c r="M6">
-        <v>1.032915074054649</v>
+        <v>1.03186699640565</v>
       </c>
       <c r="N6">
-        <v>1.02929374721763</v>
+        <v>1.023861585299795</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.034622439408967</v>
+        <v>1.033792948896238</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.036568735007164</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.035106069699673</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.020673597733426</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.007362826438879</v>
+        <v>1.005293122090155</v>
       </c>
       <c r="D7">
-        <v>1.025271739686378</v>
+        <v>1.023472934072051</v>
       </c>
       <c r="E7">
-        <v>1.011684581995618</v>
+        <v>1.010127443836489</v>
       </c>
       <c r="F7">
-        <v>1.022121494900588</v>
+        <v>1.021226884430331</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.048515942646155</v>
+        <v>1.047601210686416</v>
       </c>
       <c r="J7">
-        <v>1.026574024850106</v>
+        <v>1.024556350101892</v>
       </c>
       <c r="K7">
-        <v>1.035071530151989</v>
+        <v>1.033293171818641</v>
       </c>
       <c r="L7">
-        <v>1.021641045777628</v>
+        <v>1.020102196131334</v>
       </c>
       <c r="M7">
-        <v>1.031957153067147</v>
+        <v>1.031072778140187</v>
       </c>
       <c r="N7">
-        <v>1.028031877715079</v>
+        <v>1.02341837120761</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.033864302517512</v>
+        <v>1.033164372187652</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.035887282992141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.034640474315133</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.020525647150718</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9995029366077154</v>
+        <v>0.9990152780456013</v>
       </c>
       <c r="D8">
-        <v>1.01994879957175</v>
+        <v>1.019419477888458</v>
       </c>
       <c r="E8">
-        <v>1.005138651147092</v>
+        <v>1.005025051343179</v>
       </c>
       <c r="F8">
-        <v>1.016884404444808</v>
+        <v>1.01667324602302</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.046474703955597</v>
+        <v>1.04620592152435</v>
       </c>
       <c r="J8">
-        <v>1.021125567448661</v>
+        <v>1.02065208360484</v>
       </c>
       <c r="K8">
-        <v>1.030865165179592</v>
+        <v>1.030342671292565</v>
       </c>
       <c r="L8">
-        <v>1.016249463155666</v>
+        <v>1.016137382648562</v>
       </c>
       <c r="M8">
-        <v>1.027840421481246</v>
+        <v>1.027632006342801</v>
       </c>
       <c r="N8">
-        <v>1.022575682879177</v>
+        <v>1.021336375186136</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.030606147550053</v>
+        <v>1.030441198616631</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.032917620059689</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.032559287617608</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.019843926785288</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9847232382465849</v>
+        <v>0.9871698920000976</v>
       </c>
       <c r="D9">
-        <v>1.009942923185848</v>
+        <v>1.01175299851892</v>
       </c>
       <c r="E9">
-        <v>0.9928593541057051</v>
+        <v>0.9954001994395785</v>
       </c>
       <c r="F9">
-        <v>1.007164824847136</v>
+        <v>1.008227601799693</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.042498206138571</v>
+        <v>1.043415030294376</v>
       </c>
       <c r="J9">
-        <v>1.010827236608535</v>
+        <v>1.013183993999193</v>
       </c>
       <c r="K9">
-        <v>1.022876717170662</v>
+        <v>1.024658226650422</v>
       </c>
       <c r="L9">
-        <v>1.006069355537838</v>
+        <v>1.008568348663764</v>
       </c>
       <c r="M9">
-        <v>1.020142717563784</v>
+        <v>1.021188587531655</v>
       </c>
       <c r="N9">
-        <v>1.012262727228024</v>
+        <v>1.017168908495353</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.02451381896002</v>
+        <v>1.025341573319565</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.027265905554259</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.028536459790714</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.018476332720902</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9744742319887292</v>
+        <v>0.9792511475416712</v>
       </c>
       <c r="D10">
-        <v>1.003042058245974</v>
+        <v>1.006683807897794</v>
       </c>
       <c r="E10">
-        <v>0.9844249737636871</v>
+        <v>0.9890879079817324</v>
       </c>
       <c r="F10">
-        <v>1.000734394190244</v>
+        <v>1.002811643572945</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.039689988320611</v>
+        <v>1.041531534859394</v>
       </c>
       <c r="J10">
-        <v>1.003738524084326</v>
+        <v>1.00831287799649</v>
       </c>
       <c r="K10">
-        <v>1.017356603760766</v>
+        <v>1.020933423726423</v>
       </c>
       <c r="L10">
-        <v>0.9990812518794514</v>
+        <v>1.003657018862124</v>
       </c>
       <c r="M10">
-        <v>1.015090401571071</v>
+        <v>1.01713031781539</v>
       </c>
       <c r="N10">
-        <v>1.005163947918944</v>
+        <v>1.014674519484772</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.020567727588216</v>
+        <v>1.022182123943695</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.023379765342499</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.025921444252749</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.017623093526832</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9721557010033252</v>
+        <v>0.9775779857310922</v>
       </c>
       <c r="D11">
-        <v>1.001635082552874</v>
+        <v>1.005781580247248</v>
       </c>
       <c r="E11">
-        <v>0.9829092114771425</v>
+        <v>0.9881169116546757</v>
       </c>
       <c r="F11">
-        <v>1.00109139406152</v>
+        <v>1.003430959775614</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.039263462519096</v>
+        <v>1.041358900805418</v>
       </c>
       <c r="J11">
-        <v>1.002734532585561</v>
+        <v>1.007914239231054</v>
       </c>
       <c r="K11">
-        <v>1.016526229347123</v>
+        <v>1.020595281905766</v>
       </c>
       <c r="L11">
-        <v>0.9981607962711286</v>
+        <v>1.003266459734059</v>
       </c>
       <c r="M11">
-        <v>1.015992757597399</v>
+        <v>1.018288461979511</v>
       </c>
       <c r="N11">
-        <v>1.004158530637091</v>
+        <v>1.01490193500563</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.021726665862396</v>
+        <v>1.023542542766182</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.022826022422618</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.025718865392571</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.017759268628936</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9720712041429163</v>
+        <v>0.9774584571712567</v>
       </c>
       <c r="D12">
-        <v>1.001685721216431</v>
+        <v>1.005805581884382</v>
       </c>
       <c r="E12">
-        <v>0.9831280651186262</v>
+        <v>0.9882491942679812</v>
       </c>
       <c r="F12">
-        <v>1.002305056366845</v>
+        <v>1.004616241021371</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.039392932615181</v>
+        <v>1.041474462845317</v>
       </c>
       <c r="J12">
-        <v>1.003106466815722</v>
+        <v>1.008248431563617</v>
       </c>
       <c r="K12">
-        <v>1.016780696572684</v>
+        <v>1.02082239496807</v>
       </c>
       <c r="L12">
-        <v>0.9985858040059387</v>
+        <v>1.003605037789965</v>
       </c>
       <c r="M12">
-        <v>1.017388227977211</v>
+        <v>1.019655532323104</v>
       </c>
       <c r="N12">
-        <v>1.004530993056521</v>
+        <v>1.015284678245855</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.023162233086317</v>
+        <v>1.024955019417485</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.023005944549197</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.025879441985804</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.017939210148447</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9737222620029856</v>
+        <v>0.9785135653357394</v>
       </c>
       <c r="D13">
-        <v>1.002884289789556</v>
+        <v>1.006542160491191</v>
       </c>
       <c r="E13">
-        <v>0.9847187047056191</v>
+        <v>0.9892285749107567</v>
       </c>
       <c r="F13">
-        <v>1.004286078765055</v>
+        <v>1.006332271338403</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.039976291625745</v>
+        <v>1.041824573321184</v>
       </c>
       <c r="J13">
-        <v>1.004585073412921</v>
+        <v>1.009159889855799</v>
       </c>
       <c r="K13">
-        <v>1.017912590242362</v>
+        <v>1.021501470629057</v>
       </c>
       <c r="L13">
-        <v>1.000099604976135</v>
+        <v>1.004520350846051</v>
       </c>
       <c r="M13">
-        <v>1.019287862763381</v>
+        <v>1.021295522437231</v>
       </c>
       <c r="N13">
-        <v>1.006011699444686</v>
+        <v>1.015751937350423</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.02494462369795</v>
+        <v>1.02653169779399</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.023803722945664</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.026356804303453</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.018173687307147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9756303569258991</v>
+        <v>0.9797829069093055</v>
       </c>
       <c r="D14">
-        <v>1.004220883119249</v>
+        <v>1.007384082872628</v>
       </c>
       <c r="E14">
-        <v>0.9864225121198231</v>
+        <v>0.9903020584683255</v>
       </c>
       <c r="F14">
-        <v>1.005981342545874</v>
+        <v>1.007750215371157</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.04057875660108</v>
+        <v>1.042177408889705</v>
       </c>
       <c r="J14">
-        <v>1.006090457748975</v>
+        <v>1.010058511157249</v>
       </c>
       <c r="K14">
-        <v>1.019080501349064</v>
+        <v>1.022184864878586</v>
       </c>
       <c r="L14">
-        <v>1.001622415954861</v>
+        <v>1.005426423232216</v>
       </c>
       <c r="M14">
-        <v>1.020808156275852</v>
+        <v>1.022544218325619</v>
       </c>
       <c r="N14">
-        <v>1.007519221599168</v>
+        <v>1.016118208124958</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.026321576015478</v>
+        <v>1.027693761998685</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.024630944123329</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.026841568022671</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.018367976336588</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9765013915326461</v>
+        <v>0.9803803645616371</v>
       </c>
       <c r="D15">
-        <v>1.004819181610511</v>
+        <v>1.007770779044243</v>
       </c>
       <c r="E15">
-        <v>0.987165061617705</v>
+        <v>0.9907827506066064</v>
       </c>
       <c r="F15">
-        <v>1.006618117222947</v>
+        <v>1.008269595240596</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.040835993269386</v>
+        <v>1.042327876727987</v>
       </c>
       <c r="J15">
-        <v>1.006728271674008</v>
+        <v>1.010436565674248</v>
       </c>
       <c r="K15">
-        <v>1.019579358213524</v>
+        <v>1.022476501091535</v>
       </c>
       <c r="L15">
-        <v>1.002259854905295</v>
+        <v>1.005807702125494</v>
       </c>
       <c r="M15">
-        <v>1.021345055411306</v>
+        <v>1.022966155557752</v>
       </c>
       <c r="N15">
-        <v>1.008157941293132</v>
+        <v>1.016248876214152</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.026783826848738</v>
+        <v>1.028065112905462</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.024989615710866</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.027054277350773</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.018439556839267</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9804791826067946</v>
+        <v>0.9832327738377106</v>
       </c>
       <c r="D16">
-        <v>1.007478121037856</v>
+        <v>1.009557814536558</v>
       </c>
       <c r="E16">
-        <v>0.9903767379905661</v>
+        <v>0.9929636377796484</v>
       </c>
       <c r="F16">
-        <v>1.008973267927284</v>
+        <v>1.010146079855972</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.041914180377584</v>
+        <v>1.042966041615181</v>
       </c>
       <c r="J16">
-        <v>1.009409950357302</v>
+        <v>1.012048832044747</v>
       </c>
       <c r="K16">
-        <v>1.021677370762549</v>
+        <v>1.023720440459507</v>
       </c>
       <c r="L16">
-        <v>1.004884748843837</v>
+        <v>1.007424053653132</v>
       </c>
       <c r="M16">
-        <v>1.023146168056084</v>
+        <v>1.02429838176641</v>
       </c>
       <c r="N16">
-        <v>1.010843428267749</v>
+        <v>1.016742883504687</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.028168331301141</v>
+        <v>1.029079045431352</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.026476220814991</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.027937296194208</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.018682564840829</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9825521563847863</v>
+        <v>0.9847999805175713</v>
       </c>
       <c r="D17">
-        <v>1.008833951351495</v>
+        <v>1.010518615742364</v>
       </c>
       <c r="E17">
-        <v>0.9919707535415538</v>
+        <v>0.9941162841619586</v>
       </c>
       <c r="F17">
-        <v>1.009905203344927</v>
+        <v>1.010864149314567</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.042430032471936</v>
+        <v>1.043282436488978</v>
       </c>
       <c r="J17">
-        <v>1.010697744527911</v>
+        <v>1.012855070256257</v>
       </c>
       <c r="K17">
-        <v>1.022688842247077</v>
+        <v>1.024344695306546</v>
       </c>
       <c r="L17">
-        <v>1.006121044565791</v>
+        <v>1.008228268742765</v>
       </c>
       <c r="M17">
-        <v>1.02374175918474</v>
+        <v>1.024684334850908</v>
       </c>
       <c r="N17">
-        <v>1.012133051253792</v>
+        <v>1.017004571481383</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.028508810473276</v>
+        <v>1.029253901297081</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.027193999102952</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.028381535568023</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.01877370796996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9830839304687002</v>
+        <v>0.9852783964720154</v>
       </c>
       <c r="D18">
-        <v>1.009118023780362</v>
+        <v>1.01075730234961</v>
       </c>
       <c r="E18">
-        <v>0.9922195896424372</v>
+        <v>0.994355925965839</v>
       </c>
       <c r="F18">
-        <v>1.009504110988625</v>
+        <v>1.010443442020225</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.04247346915695</v>
+        <v>1.043303088185233</v>
       </c>
       <c r="J18">
-        <v>1.010801599039466</v>
+        <v>1.012909341570479</v>
       </c>
       <c r="K18">
-        <v>1.022781202702907</v>
+        <v>1.024392898745338</v>
       </c>
       <c r="L18">
-        <v>1.006173988318536</v>
+        <v>1.008272799902995</v>
       </c>
       <c r="M18">
-        <v>1.023160783200582</v>
+        <v>1.024084310502777</v>
       </c>
       <c r="N18">
-        <v>1.012237053250665</v>
+        <v>1.016951631638293</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.027809136577719</v>
+        <v>1.028539325062567</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.027247523713619</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.028402717678639</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.018701510979898</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9821900831371441</v>
+        <v>0.9847159577238291</v>
       </c>
       <c r="D19">
-        <v>1.008422609619495</v>
+        <v>1.010316182867581</v>
       </c>
       <c r="E19">
-        <v>0.9912336457055176</v>
+        <v>0.9937237067577448</v>
       </c>
       <c r="F19">
-        <v>1.007784080599194</v>
+        <v>1.008870952774264</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.042087114101517</v>
+        <v>1.043045473428306</v>
       </c>
       <c r="J19">
-        <v>1.009804559589679</v>
+        <v>1.012230991989368</v>
       </c>
       <c r="K19">
-        <v>1.02203375237587</v>
+        <v>1.023895588882679</v>
       </c>
       <c r="L19">
-        <v>1.005140066908667</v>
+        <v>1.007586533399179</v>
       </c>
       <c r="M19">
-        <v>1.021405959931068</v>
+        <v>1.022474567314439</v>
       </c>
       <c r="N19">
-        <v>1.011238597890498</v>
+        <v>1.01654782811285</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.026091486283563</v>
+        <v>1.026936665884671</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.026725518386178</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.028058197388618</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.018477309585658</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.977236558686276</v>
+        <v>0.981216248307927</v>
       </c>
       <c r="D20">
-        <v>1.004921724584238</v>
+        <v>1.007943475513768</v>
       </c>
       <c r="E20">
-        <v>0.9867200746616716</v>
+        <v>0.9906319646724412</v>
       </c>
       <c r="F20">
-        <v>1.002456625692134</v>
+        <v>1.004186651952015</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.040469193984932</v>
+        <v>1.041997866766129</v>
       </c>
       <c r="J20">
-        <v>1.005674079402162</v>
+        <v>1.009490960560056</v>
       </c>
       <c r="K20">
-        <v>1.018878579972072</v>
+        <v>1.021848071901173</v>
       </c>
       <c r="L20">
-        <v>1.001000525277566</v>
+        <v>1.004841564411768</v>
       </c>
       <c r="M20">
-        <v>1.01645641540598</v>
+        <v>1.018156281457158</v>
       </c>
       <c r="N20">
-        <v>1.007102251947342</v>
+        <v>1.015136557725113</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.021638026805765</v>
+        <v>1.022983322492232</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.024498639235581</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.026614889370808</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.017823723310626</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9689931435514243</v>
+        <v>0.9756594475273714</v>
       </c>
       <c r="D21">
-        <v>0.9993489074263279</v>
+        <v>1.004456710754156</v>
       </c>
       <c r="E21">
-        <v>0.9798757998248947</v>
+        <v>0.9863469473882552</v>
       </c>
       <c r="F21">
-        <v>0.9969625164385055</v>
+        <v>0.9998674004913293</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.038138581315895</v>
+        <v>1.040719438179329</v>
       </c>
       <c r="J21">
-        <v>0.9998469901582923</v>
+        <v>1.006211304574049</v>
       </c>
       <c r="K21">
-        <v>1.014342625464117</v>
+        <v>1.019354138459616</v>
       </c>
       <c r="L21">
-        <v>0.9952487316231705</v>
+        <v>1.00159168133359</v>
       </c>
       <c r="M21">
-        <v>1.012001664288382</v>
+        <v>1.014851285446768</v>
       </c>
       <c r="N21">
-        <v>1.00126688756837</v>
+        <v>1.014121603994035</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.018070543171876</v>
+        <v>1.020325896591034</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.021294771723388</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.024855173856759</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.017334404213068</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9637375480644067</v>
+        <v>0.9721282242819809</v>
       </c>
       <c r="D22">
-        <v>0.9958027704621721</v>
+        <v>1.002249759144576</v>
       </c>
       <c r="E22">
-        <v>0.9755336538624351</v>
+        <v>0.9836494787864426</v>
       </c>
       <c r="F22">
-        <v>0.9936020858031648</v>
+        <v>0.9972619887808504</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.036644011673401</v>
+        <v>1.039899055434232</v>
       </c>
       <c r="J22">
-        <v>0.9961561717888454</v>
+        <v>1.004142423608122</v>
       </c>
       <c r="K22">
-        <v>1.011457836376617</v>
+        <v>1.01777677922633</v>
       </c>
       <c r="L22">
-        <v>0.9916058904016686</v>
+        <v>0.9995519535510647</v>
       </c>
       <c r="M22">
-        <v>1.009301361093267</v>
+        <v>1.012887882045098</v>
       </c>
       <c r="N22">
-        <v>0.9975708278134953</v>
+        <v>1.013442240092065</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.015933361468479</v>
+        <v>1.018771947488</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.019241284608134</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.023724893691385</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.017030417288371</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9665118721587372</v>
+        <v>0.9739110265706044</v>
       </c>
       <c r="D23">
-        <v>0.9976665225286787</v>
+        <v>1.003343509580031</v>
       </c>
       <c r="E23">
-        <v>0.9778161257575179</v>
+        <v>0.9849791301142102</v>
       </c>
       <c r="F23">
-        <v>0.9953798545272442</v>
+        <v>0.9986055777097537</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.037428908771804</v>
+        <v>1.040296330671358</v>
       </c>
       <c r="J23">
-        <v>0.998097367776169</v>
+        <v>1.005151300372064</v>
       </c>
       <c r="K23">
-        <v>1.012970461245574</v>
+        <v>1.01853773739543</v>
       </c>
       <c r="L23">
-        <v>0.9935169000632892</v>
+        <v>1.000534278368049</v>
       </c>
       <c r="M23">
-        <v>1.010728448335322</v>
+        <v>1.01389125578753</v>
       </c>
       <c r="N23">
-        <v>0.9995147805217791</v>
+        <v>1.013682378852578</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.017062844659003</v>
+        <v>1.019566074977853</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.020300985891454</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.024252207709613</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.017155415217963</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.977107535050502</v>
+        <v>0.9811397285131419</v>
       </c>
       <c r="D24">
-        <v>1.004809875036857</v>
+        <v>1.007871388997811</v>
       </c>
       <c r="E24">
-        <v>0.9865660763909121</v>
+        <v>0.9905356533324672</v>
       </c>
       <c r="F24">
-        <v>1.002204582667414</v>
+        <v>1.003958824474257</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.040404289622962</v>
+        <v>1.041953098560579</v>
       </c>
       <c r="J24">
-        <v>1.005516208967253</v>
+        <v>1.009383629938516</v>
       </c>
       <c r="K24">
-        <v>1.018753047125262</v>
+        <v>1.021761670048282</v>
       </c>
       <c r="L24">
-        <v>1.000833286740461</v>
+        <v>1.004731037362072</v>
       </c>
       <c r="M24">
-        <v>1.01619309365758</v>
+        <v>1.017916773570485</v>
       </c>
       <c r="N24">
-        <v>1.006944157318308</v>
+        <v>1.015068323956997</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.021387877835076</v>
+        <v>1.022752091005787</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.024382049103407</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.026523354726399</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.017780150116666</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9887037826744067</v>
+        <v>0.9902763598815598</v>
       </c>
       <c r="D25">
-        <v>1.012647848033603</v>
+        <v>1.013767420978507</v>
       </c>
       <c r="E25">
-        <v>0.9961740145629373</v>
+        <v>0.9979136562034637</v>
       </c>
       <c r="F25">
-        <v>1.009757854837919</v>
+        <v>1.010440387326739</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.043593327863166</v>
+        <v>1.044160771620476</v>
       </c>
       <c r="J25">
-        <v>1.013617383039221</v>
+        <v>1.015135453726033</v>
       </c>
       <c r="K25">
-        <v>1.025052944709058</v>
+        <v>1.026155709724092</v>
       </c>
       <c r="L25">
-        <v>1.00883201580432</v>
+        <v>1.010544446541242</v>
       </c>
       <c r="M25">
-        <v>1.022206557907174</v>
+        <v>1.022878763172541</v>
       </c>
       <c r="N25">
-        <v>1.015056835986675</v>
+        <v>1.018196093751755</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.026147245566184</v>
+        <v>1.026679261634046</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.028833603727342</v>
+        <v>1.029626995458234</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.018837439215502</v>
       </c>
     </row>
   </sheetData>
